--- a/final_data_pipeline/output/312140longform_elec_options.xlsx
+++ b/final_data_pipeline/output/312140longform_elec_options.xlsx
@@ -591,7 +591,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -612,10 +612,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R2">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="S2">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="T2">
         <v>12.15694385248556</v>
@@ -650,7 +650,7 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -665,10 +665,10 @@
         <v>253145.1872083376</v>
       </c>
       <c r="R3">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="S3">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="T3">
         <v>31.6431484010422</v>
@@ -874,7 +874,7 @@
         <v>70</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -895,10 +895,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R7">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="S7">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="T7">
         <v>21.68026390753792</v>
@@ -933,7 +933,7 @@
         <v>36</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -948,10 +948,10 @@
         <v>451450.1779555182</v>
       </c>
       <c r="R8">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="S8">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="T8">
         <v>56.43127224443978</v>
@@ -992,7 +992,7 @@
         <v>70</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1013,10 +1013,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R9">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="S9">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="T9">
         <v>14.63523762208856</v>
@@ -1051,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1066,10 +1066,10 @@
         <v>304750.9318655474</v>
       </c>
       <c r="R10">
-        <v>1.741590909090909</v>
+        <v>1.642853739876131</v>
       </c>
       <c r="S10">
-        <v>1.89075</v>
+        <v>1.773501823866597</v>
       </c>
       <c r="T10">
         <v>38.09386648319343</v>
@@ -1222,7 +1222,7 @@
         <v>37</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1269,7 +1269,7 @@
         <v>38</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1316,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1481,7 +1481,7 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1496,10 +1496,10 @@
         <v>726016.8110556793</v>
       </c>
       <c r="R18">
-        <v>1.741590909090909</v>
+        <v>1.911855479578636</v>
       </c>
       <c r="S18">
-        <v>1.89075</v>
+        <v>2.09608909874769</v>
       </c>
       <c r="T18">
         <v>90.75210138195992</v>
@@ -1534,7 +1534,7 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1587,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1608,10 +1608,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R20">
-        <v>1.667307692307692</v>
+        <v>1.819666609086197</v>
       </c>
       <c r="S20">
-        <v>1.799766355140187</v>
+        <v>1.981148790245761</v>
       </c>
       <c r="T20">
         <v>34.8659427631173</v>
@@ -1652,7 +1652,7 @@
         <v>70</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1673,10 +1673,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R21">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="S21">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="T21">
         <v>15.85593813357859</v>
@@ -1711,7 +1711,7 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1726,10 +1726,10 @@
         <v>330169.6936247601</v>
       </c>
       <c r="R22">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="S22">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="T22">
         <v>41.27121170309502</v>
@@ -1770,7 +1770,7 @@
         <v>70</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1791,10 +1791,10 @@
         <v>4.097340425531915</v>
       </c>
       <c r="R23">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="S23">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="T23">
         <v>32.52085163609455</v>
@@ -1829,7 +1829,7 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1844,10 +1844,10 @@
         <v>677184.7575746218</v>
       </c>
       <c r="R24">
-        <v>1.741590909090909</v>
+        <v>1.642853739876131</v>
       </c>
       <c r="S24">
-        <v>1.89075</v>
+        <v>1.773501823866597</v>
       </c>
       <c r="T24">
         <v>84.64809469682773</v>
@@ -1882,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L25">
         <v>8000</v>
